--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2743439.601856246</v>
+        <v>-2746038.396826908</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673438</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -662,10 +662,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>10.96577973845413</v>
+        <v>365.648821359138</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>43.86785806562906</v>
+        <v>43.86785806562904</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -747,16 +747,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>92.85596119227688</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>135.0312635940655</v>
       </c>
       <c r="H3" t="n">
-        <v>89.9039426608057</v>
+        <v>37.69069145969961</v>
       </c>
       <c r="I3" t="n">
-        <v>19.91189527285533</v>
+        <v>19.91189527285532</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>2.116953416516793</v>
+        <v>2.116953416516765</v>
       </c>
       <c r="S3" t="n">
         <v>128.73407520327</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>90.13067551456435</v>
+        <v>90.13067551456432</v>
       </c>
       <c r="S4" t="n">
         <v>190.2335559203904</v>
@@ -874,7 +874,7 @@
         <v>286.2132921354687</v>
       </c>
       <c r="V4" t="n">
-        <v>33.69146232827644</v>
+        <v>33.69146232827683</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,10 +908,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>213.3749514242881</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,13 +950,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>96.44868378079367</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851095</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>54.51165059784287</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>160.238372828422</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,7 +1145,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>204.6785882200668</v>
+        <v>160.5958651236762</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1193,7 +1193,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>35.76004954248994</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>160.7365361851533</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187869</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>83.06560892428195</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016443</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206838</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>83.06560892428134</v>
+        <v>20.88994825141552</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012162</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1853,10 +1853,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417097</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>83.06560892428156</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>121.8000472740346</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892444</v>
+        <v>286.1844743892442</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>116.4636264596508</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>99.97427419833821</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012162</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892442</v>
@@ -2479,10 +2479,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>108.2950343703268</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>99.97427419833929</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012162</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U25" t="n">
         <v>286.184474389244</v>
@@ -2713,25 +2713,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308915</v>
+        <v>121.13640053089</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652637</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808202</v>
       </c>
       <c r="S28" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
         <v>261.8998268972044</v>
@@ -2776,7 +2776,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y28" t="n">
         <v>194.3000058600551</v>
@@ -2968,7 +2968,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652575</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>42.09059921808195</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
         <v>193.1208028352485</v>
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,13 +3235,13 @@
         <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096051</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3424,10 +3424,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
@@ -3436,13 +3436,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3478,7 +3478,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972039</v>
+        <v>261.8998268972042</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3715,7 +3715,7 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701359</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,13 +3952,13 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972053</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>847.678717126576</v>
+        <v>847.6787171265769</v>
       </c>
       <c r="C2" t="n">
-        <v>478.7162001861643</v>
+        <v>478.7162001861652</v>
       </c>
       <c r="D2" t="n">
-        <v>120.4505015794139</v>
+        <v>478.7162001861652</v>
       </c>
       <c r="E2" t="n">
         <v>109.3739563890565</v>
@@ -4325,19 +4325,19 @@
         <v>109.3739563890565</v>
       </c>
       <c r="I2" t="n">
-        <v>65.06298864599681</v>
+        <v>65.06298864599682</v>
       </c>
       <c r="J2" t="n">
         <v>248.9490509731313</v>
       </c>
       <c r="K2" t="n">
-        <v>575.2851091032917</v>
+        <v>575.2851091032915</v>
       </c>
       <c r="L2" t="n">
         <v>1017.035607679883</v>
       </c>
       <c r="M2" t="n">
-        <v>1540.237590999097</v>
+        <v>1540.237590999098</v>
       </c>
       <c r="N2" t="n">
         <v>2076.519337778083</v>
@@ -4349,7 +4349,7 @@
         <v>2955.894353302311</v>
       </c>
       <c r="Q2" t="n">
-        <v>3197.827805704723</v>
+        <v>3197.827805704724</v>
       </c>
       <c r="R2" t="n">
         <v>3253.149432299841</v>
@@ -4358,22 +4358,22 @@
         <v>3141.490970637406</v>
       </c>
       <c r="T2" t="n">
-        <v>2935.250468674412</v>
+        <v>2935.250468674413</v>
       </c>
       <c r="U2" t="n">
-        <v>2681.715190041274</v>
+        <v>2681.715190041275</v>
       </c>
       <c r="V2" t="n">
-        <v>2350.652302697703</v>
+        <v>2350.652302697704</v>
       </c>
       <c r="W2" t="n">
-        <v>1997.883647427589</v>
+        <v>1997.88364742759</v>
       </c>
       <c r="X2" t="n">
-        <v>1624.417889166509</v>
+        <v>1624.41788916651</v>
       </c>
       <c r="Y2" t="n">
-        <v>1234.278557190698</v>
+        <v>1234.278557190699</v>
       </c>
     </row>
     <row r="3">
@@ -4383,43 +4383,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>888.802087361511</v>
+        <v>888.8020873615114</v>
       </c>
       <c r="C3" t="n">
-        <v>714.349058080384</v>
+        <v>714.3490580803845</v>
       </c>
       <c r="D3" t="n">
-        <v>565.4146484191326</v>
+        <v>565.4146484191333</v>
       </c>
       <c r="E3" t="n">
-        <v>406.1771934136771</v>
+        <v>406.1771934136777</v>
       </c>
       <c r="F3" t="n">
-        <v>312.383293219458</v>
+        <v>259.6426354405628</v>
       </c>
       <c r="G3" t="n">
-        <v>175.9880774678766</v>
+        <v>123.2474196889816</v>
       </c>
       <c r="H3" t="n">
         <v>85.17601417413351</v>
       </c>
       <c r="I3" t="n">
-        <v>65.06298864599681</v>
+        <v>65.06298864599682</v>
       </c>
       <c r="J3" t="n">
         <v>155.7664206654043</v>
       </c>
       <c r="K3" t="n">
-        <v>388.9478577415904</v>
+        <v>388.9478577415905</v>
       </c>
       <c r="L3" t="n">
-        <v>748.8116174223333</v>
+        <v>748.8116174223335</v>
       </c>
       <c r="M3" t="n">
         <v>1188.112519465048</v>
       </c>
       <c r="N3" t="n">
-        <v>1653.449054119949</v>
+        <v>1653.44905411995</v>
       </c>
       <c r="O3" t="n">
         <v>2056.921277259247</v>
@@ -4437,13 +4437,13 @@
         <v>2382.861096708697</v>
       </c>
       <c r="T3" t="n">
-        <v>2190.088648044976</v>
+        <v>2190.088648044977</v>
       </c>
       <c r="U3" t="n">
-        <v>1962.01868831201</v>
+        <v>1962.018688312011</v>
       </c>
       <c r="V3" t="n">
-        <v>1726.866580080267</v>
+        <v>1726.866580080268</v>
       </c>
       <c r="W3" t="n">
         <v>1472.629223352066</v>
@@ -4452,7 +4452,7 @@
         <v>1264.777723146533</v>
       </c>
       <c r="Y3" t="n">
-        <v>1057.017424381579</v>
+        <v>1057.01742438158</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>65.06298864599681</v>
+        <v>65.06298864599682</v>
       </c>
       <c r="C4" t="n">
-        <v>65.06298864599681</v>
+        <v>65.06298864599682</v>
       </c>
       <c r="D4" t="n">
-        <v>65.06298864599681</v>
+        <v>65.06298864599682</v>
       </c>
       <c r="E4" t="n">
-        <v>65.06298864599681</v>
+        <v>65.06298864599682</v>
       </c>
       <c r="F4" t="n">
-        <v>65.06298864599681</v>
+        <v>65.06298864599682</v>
       </c>
       <c r="G4" t="n">
-        <v>65.06298864599681</v>
+        <v>65.06298864599682</v>
       </c>
       <c r="H4" t="n">
-        <v>65.06298864599681</v>
+        <v>65.06298864599682</v>
       </c>
       <c r="I4" t="n">
-        <v>65.06298864599681</v>
+        <v>65.06298864599682</v>
       </c>
       <c r="J4" t="n">
-        <v>75.02005212274264</v>
+        <v>75.02005212274267</v>
       </c>
       <c r="K4" t="n">
-        <v>170.2650045033533</v>
+        <v>170.2650045033532</v>
       </c>
       <c r="L4" t="n">
-        <v>322.0515495633493</v>
+        <v>322.0515495633492</v>
       </c>
       <c r="M4" t="n">
-        <v>485.3474622992785</v>
+        <v>485.3474622992784</v>
       </c>
       <c r="N4" t="n">
-        <v>652.6180891206066</v>
+        <v>652.6180891206064</v>
       </c>
       <c r="O4" t="n">
-        <v>786.8064976079663</v>
+        <v>786.8064976079664</v>
       </c>
       <c r="P4" t="n">
-        <v>882.5658916983272</v>
+        <v>882.5658916983273</v>
       </c>
       <c r="Q4" t="n">
-        <v>893.2769546529784</v>
+        <v>893.2769546529786</v>
       </c>
       <c r="R4" t="n">
-        <v>802.2358682746304</v>
+        <v>802.2358682746308</v>
       </c>
       <c r="S4" t="n">
-        <v>610.0807612843372</v>
+        <v>610.0807612843374</v>
       </c>
       <c r="T4" t="n">
-        <v>388.1991042659414</v>
+        <v>388.1991042659416</v>
       </c>
       <c r="U4" t="n">
-        <v>99.09476877556898</v>
+        <v>99.09476877556938</v>
       </c>
       <c r="V4" t="n">
-        <v>65.06298864599681</v>
+        <v>65.06298864599682</v>
       </c>
       <c r="W4" t="n">
-        <v>65.06298864599681</v>
+        <v>65.06298864599682</v>
       </c>
       <c r="X4" t="n">
-        <v>65.06298864599681</v>
+        <v>65.06298864599682</v>
       </c>
       <c r="Y4" t="n">
-        <v>65.06298864599681</v>
+        <v>65.06298864599682</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1636.624422581789</v>
+        <v>1458.811090838974</v>
       </c>
       <c r="C5" t="n">
-        <v>1636.624422581789</v>
+        <v>1089.848573898562</v>
       </c>
       <c r="D5" t="n">
-        <v>1278.358723975039</v>
+        <v>1089.848573898562</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>704.0603213003178</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>293.0744165107103</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>282.0423703961108</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3117.892240226373</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V5" t="n">
-        <v>2786.829352882803</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W5" t="n">
-        <v>2786.829352882803</v>
+        <v>2609.016021139987</v>
       </c>
       <c r="X5" t="n">
-        <v>2413.363594621723</v>
+        <v>2235.550262878907</v>
       </c>
       <c r="Y5" t="n">
-        <v>2023.224262645911</v>
+        <v>1845.410930903096</v>
       </c>
     </row>
     <row r="6">
@@ -4638,10 +4638,10 @@
         <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4699,34 +4699,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
@@ -4750,25 +4750,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>865.8247324870305</v>
       </c>
       <c r="T7" t="n">
-        <v>699.1203903877109</v>
+        <v>865.8247324870305</v>
       </c>
       <c r="U7" t="n">
-        <v>410.0175235133545</v>
+        <v>576.721865612674</v>
       </c>
       <c r="V7" t="n">
-        <v>410.0175235133545</v>
+        <v>576.721865612674</v>
       </c>
       <c r="W7" t="n">
-        <v>410.0175235133545</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="X7" t="n">
-        <v>410.0175235133545</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y7" t="n">
-        <v>248.1605812624231</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1767.878520285688</v>
+        <v>1734.047335491682</v>
       </c>
       <c r="C8" t="n">
-        <v>1767.878520285688</v>
+        <v>1365.08481855127</v>
       </c>
       <c r="D8" t="n">
-        <v>1409.612821678938</v>
+        <v>1365.08481855127</v>
       </c>
       <c r="E8" t="n">
-        <v>1023.824569080693</v>
+        <v>979.2965659530259</v>
       </c>
       <c r="F8" t="n">
-        <v>612.8386642910857</v>
+        <v>568.3106611634184</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,10 +4799,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,43 +4811,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792694</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.48361052258</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.0178522615</v>
+        <v>2510.786507531615</v>
       </c>
       <c r="Y8" t="n">
-        <v>1767.878520285688</v>
+        <v>2120.647175555804</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4878,16 @@
         <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,34 +4936,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>252.7500180086504</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="C10" t="n">
-        <v>216.6287558445191</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218339</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
@@ -4987,25 +4987,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>729.2011216450112</v>
+        <v>758.526868257424</v>
       </c>
       <c r="T10" t="n">
-        <v>507.4345062145372</v>
+        <v>758.526868257424</v>
       </c>
       <c r="U10" t="n">
-        <v>507.4345062145372</v>
+        <v>758.526868257424</v>
       </c>
       <c r="V10" t="n">
-        <v>252.7500180086504</v>
+        <v>503.8423800515371</v>
       </c>
       <c r="W10" t="n">
-        <v>252.7500180086504</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="X10" t="n">
-        <v>252.7500180086504</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="Y10" t="n">
-        <v>252.7500180086504</v>
+        <v>214.4252100145765</v>
       </c>
     </row>
     <row r="11">
@@ -5042,7 +5042,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400716</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121646</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D13" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5200,10 +5200,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5215,19 +5215,19 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
         <v>1688.385853854706</v>
@@ -5236,13 +5236,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138414</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703113</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5279,7 +5279,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5291,10 +5291,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
@@ -5309,16 +5309,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400709</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C16" t="n">
         <v>344.917417812164</v>
       </c>
       <c r="D16" t="n">
-        <v>261.0127623330919</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
         <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,7 +5458,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487567</v>
@@ -5476,10 +5476,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138407</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703106</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="17">
@@ -5489,46 +5489,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192514</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111707</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075799</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5540,25 +5540,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,19 +5586,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="M18" t="n">
         <v>680.0291294438176</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.853600740071</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121641</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="D19" t="n">
-        <v>261.0127623330919</v>
+        <v>363.7369613277353</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>363.7369613277353</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>216.847013829825</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5677,19 +5677,19 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
@@ -5716,7 +5716,7 @@
         <v>916.2946447138409</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703107</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
     <row r="20">
@@ -5741,28 +5741,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400713</v>
+        <v>577.8620388433918</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121644</v>
+        <v>408.9258559154849</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998287</v>
+        <v>408.9258559154849</v>
       </c>
       <c r="E22" t="n">
-        <v>194.8007783998287</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>194.8007783998287</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
         <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138412</v>
+        <v>916.2946447138419</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703111</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5978,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400714</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121646</v>
+        <v>344.9174178121654</v>
       </c>
       <c r="D25" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998297</v>
       </c>
       <c r="E25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
         <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138413</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703112</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="26">
@@ -6212,16 +6212,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
         <v>378.192580311172</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319312</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656804</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150028</v>
+        <v>656.964603115001</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942641</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580119</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345482</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H28" t="n">
-        <v>151.3734194384025</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N28" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O28" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382517</v>
       </c>
       <c r="P28" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q28" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547833</v>
       </c>
       <c r="T28" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W28" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y28" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="29">
@@ -6449,16 +6449,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
         <v>378.192580311172</v>
@@ -6595,49 +6595,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N31" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q31" t="n">
         <v>2639.297491717215</v>
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,31 +6719,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,19 +6771,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="M33" t="n">
         <v>680.0291294438176</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
         <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F34" t="n">
         <v>411.2214559580113</v>
@@ -6853,7 +6853,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
@@ -6883,25 +6883,25 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6926,28 +6926,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7020,7 +7020,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
         <v>680.0291294438176</v>
@@ -7069,7 +7069,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
         <v>782.5512955656818</v>
@@ -7081,7 +7081,7 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345477</v>
@@ -7090,7 +7090,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
@@ -7123,7 +7123,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
         <v>1978.840049838286</v>
@@ -7154,28 +7154,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7333,10 +7333,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7363,16 +7363,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7388,70 +7388,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192832</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111739</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075831</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,22 +7482,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
@@ -7564,16 +7564,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7600,16 +7600,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7625,31 +7625,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,37 +7658,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,22 +7719,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K45" t="n">
-        <v>184.7035232280589</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438176</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380724</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -22550,10 +22550,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>370.9645903338077</v>
+        <v>16.28154871312375</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22635,13 +22635,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>52.213251201107</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>52.21325120110532</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>144.9920054808266</v>
       </c>
       <c r="I4" t="n">
-        <v>97.15402040370431</v>
+        <v>97.15402040370429</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22762,7 +22762,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>218.4461809955516</v>
+        <v>218.4461809955512</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>65.54986409393041</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,10 +23428,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864788616</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>65.54986409393102</v>
+        <v>127.7255247667968</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23890,19 +23890,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>65.54986409393079</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>43.7240910182343</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>63.36835372228646</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>65.54986409393064</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462238</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856546</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24367,10 +24367,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>40.32043864788551</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844822983</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462238</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856546</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24610,7 +24610,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1.580957587066223e-12</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1308430.533701947</v>
+        <v>1308430.533701948</v>
       </c>
       <c r="C3" t="n">
-        <v>19312.30676833935</v>
+        <v>19312.30676833899</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>5.26951356113355e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>232219.4755097967</v>
+        <v>232219.4755097966</v>
       </c>
       <c r="K3" t="n">
-        <v>4661.98900094094</v>
+        <v>4661.989000940877</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>5.83794774974163e-11</v>
       </c>
       <c r="M3" t="n">
         <v>85055.02793551187</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363168</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>572.0114859741998</v>
+        <v>572.0114859742</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687963</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687975</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="I4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
-        <v>23427.49926997314</v>
+        <v>23427.49926997312</v>
       </c>
       <c r="K4" t="n">
         <v>23427.49926997314</v>
       </c>
       <c r="L4" t="n">
-        <v>23427.49926997314</v>
+        <v>23427.4992699732</v>
       </c>
       <c r="M4" t="n">
-        <v>23427.49926997312</v>
+        <v>23427.49926997313</v>
       </c>
       <c r="N4" t="n">
         <v>23427.49926997314</v>
       </c>
       <c r="O4" t="n">
-        <v>23427.49926997314</v>
+        <v>23427.49926997309</v>
       </c>
       <c r="P4" t="n">
-        <v>23427.49926997314</v>
+        <v>23427.49926997312</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>106510.3641235035</v>
+        <v>106510.3641235036</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,37 +26519,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1415512.909311425</v>
+        <v>-1415942.468178015</v>
       </c>
       <c r="C6" t="n">
-        <v>-220842.9914337852</v>
+        <v>-220842.9914337848</v>
       </c>
       <c r="D6" t="n">
-        <v>-201530.6846654459</v>
+        <v>-201530.6846654458</v>
       </c>
       <c r="E6" t="n">
-        <v>-441971.6316381421</v>
+        <v>-442006.3695635777</v>
       </c>
       <c r="F6" t="n">
-        <v>-116559.1698307868</v>
+        <v>-116593.9077562224</v>
       </c>
       <c r="G6" t="n">
-        <v>-116559.1698307868</v>
+        <v>-116593.9077562226</v>
       </c>
       <c r="H6" t="n">
-        <v>-116559.1698307868</v>
+        <v>-116593.9077562225</v>
       </c>
       <c r="I6" t="n">
-        <v>-116559.1698307868</v>
+        <v>-116593.9077562225</v>
       </c>
       <c r="J6" t="n">
-        <v>-358811.0906336852</v>
+        <v>-358811.0906336851</v>
       </c>
       <c r="K6" t="n">
-        <v>-131253.6041248295</v>
+        <v>-131253.6041248294</v>
       </c>
       <c r="L6" t="n">
-        <v>-126591.6151238885</v>
+        <v>-126591.6151238886</v>
       </c>
       <c r="M6" t="n">
         <v>-211646.6430594004</v>
@@ -26558,7 +26558,7 @@
         <v>-126591.6151238885</v>
       </c>
       <c r="O6" t="n">
-        <v>-146019.3331175203</v>
+        <v>-146019.3331175202</v>
       </c>
       <c r="P6" t="n">
         <v>-126591.6151238885</v>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.586891951416936e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.586891951416936e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.586891951416936e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="K2" t="n">
         <v>24.28464749203973</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="3">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>813.2873580749601</v>
+        <v>813.2873580749604</v>
       </c>
       <c r="C4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022928</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26826,10 +26826,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.586891951416936e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920396</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.750155989720952e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>7.297434687177037e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920396</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26960,7 +26960,7 @@
         <v>1074.995080392017</v>
       </c>
       <c r="C3" t="n">
-        <v>14.78162020128138</v>
+        <v>14.78162020128116</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>813.2873580749601</v>
+        <v>813.2873580749604</v>
       </c>
       <c r="C4" t="n">
-        <v>18.11409732733262</v>
+        <v>18.11409732733216</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>813.2873580749601</v>
+        <v>813.2873580749604</v>
       </c>
       <c r="K4" t="n">
-        <v>18.11409732733262</v>
+        <v>18.11409732733216</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.586891951416936e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920396</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.750155989720952e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>813.2873580749601</v>
+        <v>813.2873580749604</v>
       </c>
       <c r="K4" t="n">
-        <v>18.11409732733262</v>
+        <v>18.11409732733216</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,10 +27628,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>81.23281296303233</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -27670,13 +27670,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>154.5464881781083</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27822,10 +27822,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>135.257374733599</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>58.34628052367276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,7 +27865,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>206.2431374333866</v>
+        <v>250.3258605297772</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27913,7 +27913,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28011,13 +28011,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>131.4867715561379</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28059,10 +28059,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>29.03248914628861</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28071,7 +28071,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28573,10 +28573,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.71126790898621e-12</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>6.586891951416936e-14</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>6.586891951416936e-14</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>6.586891951416936e-14</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203966</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203966</v>
       </c>
     </row>
     <row r="29">
@@ -29755,7 +29755,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.321588262882477</v>
+        <v>4.321588262882478</v>
       </c>
       <c r="H2" t="n">
-        <v>44.25846579724518</v>
+        <v>44.25846579724519</v>
       </c>
       <c r="I2" t="n">
-        <v>166.6080315047768</v>
+        <v>166.6080315047769</v>
       </c>
       <c r="J2" t="n">
         <v>366.789401826822</v>
       </c>
       <c r="K2" t="n">
-        <v>549.7222329946374</v>
+        <v>549.7222329946375</v>
       </c>
       <c r="L2" t="n">
-        <v>681.979039794827</v>
+        <v>681.9790397948271</v>
       </c>
       <c r="M2" t="n">
-        <v>758.8330850648632</v>
+        <v>758.8330850648634</v>
       </c>
       <c r="N2" t="n">
-        <v>771.1117977167781</v>
+        <v>771.1117977167784</v>
       </c>
       <c r="O2" t="n">
-        <v>728.1390044277405</v>
+        <v>728.1390044277406</v>
       </c>
       <c r="P2" t="n">
-        <v>621.4497941878292</v>
+        <v>621.4497941878294</v>
       </c>
       <c r="Q2" t="n">
-        <v>466.6829145233504</v>
+        <v>466.6829145233505</v>
       </c>
       <c r="R2" t="n">
-        <v>271.4659687182916</v>
+        <v>271.4659687182917</v>
       </c>
       <c r="S2" t="n">
-        <v>98.47819254043453</v>
+        <v>98.47819254043456</v>
       </c>
       <c r="T2" t="n">
-        <v>18.91775262076805</v>
+        <v>18.91775262076806</v>
       </c>
       <c r="U2" t="n">
         <v>0.3457270610305981</v>
@@ -31121,31 +31121,31 @@
         <v>2.312253569145093</v>
       </c>
       <c r="H3" t="n">
-        <v>22.33150157569077</v>
+        <v>22.33150157569078</v>
       </c>
       <c r="I3" t="n">
-        <v>79.61048472714467</v>
+        <v>79.61048472714468</v>
       </c>
       <c r="J3" t="n">
         <v>218.4572549690985</v>
       </c>
       <c r="K3" t="n">
-        <v>373.3782441018197</v>
+        <v>373.3782441018198</v>
       </c>
       <c r="L3" t="n">
-        <v>502.0531269321397</v>
+        <v>502.0531269321398</v>
       </c>
       <c r="M3" t="n">
-        <v>585.8723188136491</v>
+        <v>585.8723188136493</v>
       </c>
       <c r="N3" t="n">
-        <v>601.378615775153</v>
+        <v>601.3786157751531</v>
       </c>
       <c r="O3" t="n">
-        <v>550.1439445851485</v>
+        <v>550.1439445851486</v>
       </c>
       <c r="P3" t="n">
-        <v>441.5390170764871</v>
+        <v>441.5390170764873</v>
       </c>
       <c r="Q3" t="n">
         <v>295.1571398087667</v>
@@ -31154,10 +31154,10 @@
         <v>143.5625505474472</v>
       </c>
       <c r="S3" t="n">
-        <v>42.94909590056782</v>
+        <v>42.94909590056783</v>
       </c>
       <c r="T3" t="n">
-        <v>9.320004517738331</v>
+        <v>9.320004517738335</v>
       </c>
       <c r="U3" t="n">
         <v>0.152121945338493</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.938515718739702</v>
+        <v>1.938515718739703</v>
       </c>
       <c r="H4" t="n">
-        <v>17.235167026613</v>
+        <v>17.23516702661301</v>
       </c>
       <c r="I4" t="n">
-        <v>58.29645452355398</v>
+        <v>58.29645452355399</v>
       </c>
       <c r="J4" t="n">
         <v>137.053061314897</v>
@@ -31212,10 +31212,10 @@
         <v>225.2202807772127</v>
       </c>
       <c r="L4" t="n">
-        <v>288.2044187660827</v>
+        <v>288.2044187660828</v>
       </c>
       <c r="M4" t="n">
-        <v>303.8711503475335</v>
+        <v>303.8711503475336</v>
       </c>
       <c r="N4" t="n">
         <v>296.6457735776858</v>
@@ -31224,19 +31224,19 @@
         <v>274.0003854087719</v>
       </c>
       <c r="P4" t="n">
-        <v>234.4546647464817</v>
+        <v>234.4546647464818</v>
       </c>
       <c r="Q4" t="n">
-        <v>162.3242571391945</v>
+        <v>162.3242571391946</v>
       </c>
       <c r="R4" t="n">
-        <v>87.16271586260514</v>
+        <v>87.16271586260517</v>
       </c>
       <c r="S4" t="n">
         <v>33.7830421165819</v>
       </c>
       <c r="T4" t="n">
-        <v>8.282748980069636</v>
+        <v>8.282748980069638</v>
       </c>
       <c r="U4" t="n">
         <v>0.1057372210221657</v>
@@ -32230,7 +32230,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33740,10 +33740,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067255</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34217,10 +34217,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N42" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,37 +34448,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>229.6463482471742</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>396.9700886943664</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,28 +34699,28 @@
         <v>185.7434973001357</v>
       </c>
       <c r="K2" t="n">
-        <v>329.6323819496568</v>
+        <v>329.6323819496569</v>
       </c>
       <c r="L2" t="n">
-        <v>446.2126248248398</v>
+        <v>446.2126248248399</v>
       </c>
       <c r="M2" t="n">
-        <v>528.4868518375905</v>
+        <v>528.4868518375907</v>
       </c>
       <c r="N2" t="n">
-        <v>541.6987341201873</v>
+        <v>541.6987341201875</v>
       </c>
       <c r="O2" t="n">
-        <v>498.0407930060537</v>
+        <v>498.0407930060538</v>
       </c>
       <c r="P2" t="n">
-        <v>390.2167984325596</v>
+        <v>390.2167984325599</v>
       </c>
       <c r="Q2" t="n">
-        <v>244.3772246489009</v>
+        <v>244.377224648901</v>
       </c>
       <c r="R2" t="n">
-        <v>55.88043090415948</v>
+        <v>55.88043090415954</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>91.61962830243181</v>
+        <v>91.61962830243183</v>
       </c>
       <c r="K3" t="n">
-        <v>235.5368051274607</v>
+        <v>235.5368051274608</v>
       </c>
       <c r="L3" t="n">
-        <v>363.4987471522655</v>
+        <v>363.4987471522656</v>
       </c>
       <c r="M3" t="n">
-        <v>443.7382848916308</v>
+        <v>443.7382848916309</v>
       </c>
       <c r="N3" t="n">
-        <v>470.0369036918197</v>
+        <v>470.0369036918198</v>
       </c>
       <c r="O3" t="n">
-        <v>407.547700140704</v>
+        <v>407.5477001407041</v>
       </c>
       <c r="P3" t="n">
-        <v>307.5646096621569</v>
+        <v>307.564609662157</v>
       </c>
       <c r="Q3" t="n">
-        <v>155.1753657227451</v>
+        <v>155.1753657227452</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,16 +34854,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.05763987550084</v>
+        <v>10.05763987550087</v>
       </c>
       <c r="K4" t="n">
-        <v>96.20702260667727</v>
+        <v>96.20702260667733</v>
       </c>
       <c r="L4" t="n">
-        <v>153.3197424848444</v>
+        <v>153.3197424848445</v>
       </c>
       <c r="M4" t="n">
-        <v>164.9453663999284</v>
+        <v>164.9453663999285</v>
       </c>
       <c r="N4" t="n">
         <v>168.9602291124526</v>
@@ -34872,10 +34872,10 @@
         <v>135.5438469569291</v>
       </c>
       <c r="P4" t="n">
-        <v>96.72666069733413</v>
+        <v>96.72666069733418</v>
       </c>
       <c r="Q4" t="n">
-        <v>10.8192555097487</v>
+        <v>10.81925550974873</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35583,7 +35583,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066246</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35878,7 +35878,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -35969,7 +35969,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402481</v>
+        <v>592.1338044402482</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295343</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
         <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295343</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
         <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K28" t="n">
         <v>288.6172359016746</v>
@@ -36768,10 +36768,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P28" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36990,10 +36990,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
         <v>450.5570744930848</v>
@@ -37154,7 +37154,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>592.1338044402482</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37233,10 +37233,10 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
         <v>397.5465471980851</v>
@@ -37388,10 +37388,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37701,16 +37701,16 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
         <v>397.5465471980851</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236319604</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37865,10 +37865,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N42" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>91.80490927281522</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>254.8360547723481</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
